--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>LOVELACE LAB</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Mobile Development</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -203,6 +206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -211,9 +217,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,7 +525,7 @@
   <dimension ref="E2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,14 +539,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E3" s="1"/>
@@ -568,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -577,7 +580,7 @@
       <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -597,17 +600,19 @@
       <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="5:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="1"/>
@@ -635,7 +640,7 @@
       <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
